--- a/Assests/The Black Vault File Dump Open Directories.xlsx
+++ b/Assests/The Black Vault File Dump Open Directories.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28770" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28770" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Main Directories" sheetId="1" r:id="rId1"/>
-    <sheet name="Unexplored" sheetId="2" r:id="rId2"/>
+    <sheet name="Other Files" sheetId="3" r:id="rId2"/>
+    <sheet name="Unexplored" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="244">
   <si>
     <t>The Black Vault File Dump Open Directories</t>
   </si>
@@ -294,6 +295,459 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/youtube/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dot/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/ig/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/defenseissues/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/doj/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/ig/HUDIG/HUDIG-2015Employee/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/ig/HUDIG/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/defenseissues/cog/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/defenseissues/drones/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/defenseissues/marijuana/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nro/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nro/UPWARD/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dtic/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/congress/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/congress/crossfirehurricane/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/ntsb/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/army/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Maxwell-Deposition-2016.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/service-ll-usrep-usrep410-usrep410113-usrep410113.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dhs/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Report_Volume1.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Report_Volume2.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Report_Volume3.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Report_Volume4.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Report_Volume4_Excerpt.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/ufos/Hearings_Reports_and_Prints_of_the_House.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/ufos/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/senate/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/cigie/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/osc/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/treasury/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/TrumpLetterToGovernors.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/final__defense_production_act_091030.pdf</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/daeo/</t>
+  </si>
+  <si>
+    <t>https://www.theblackvault.com/documentarchive/wp-content/uploads/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dod/iraqi-freedom-dod/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dod/readingroom/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/MJ/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/assassins/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/authors/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/bankrobbers/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/celebrities/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/cia/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/civilrights/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/coldwar/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/espionage/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/espionage/fuchs/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/espionage/williamremington/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/fbicia/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/fbicia/Aug2016/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/gangsterera/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/gangsterera/bonnieandclyde/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/gangsterera/johndillinger/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/gangsterera/machinegunkelly/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/gangsterera/meyerlansky/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/historical/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/informant/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/johnoneill/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/journalists/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/mcveigh/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/military/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/missing/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/paranormal/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/politicians/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/rubberstamps/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/scientists/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/serialkillers/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/solo/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fbifiles/sports/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/foia/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/foia/dod/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dia/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/doe/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/cafeterias/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/gao/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/usss/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/fcc/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/CRPT-116hrpt346.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/ArticlesofImpeachment-DonaldTrump.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/20191203-impeachment.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/usps/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/fbifiles/jamarclark-fbi1.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/epstein/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/NIST/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/Somali/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/amerithrax/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/benghazi/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/terrorism/liberty/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/cia/EOM-2018-00874.pdf</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nsa/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nsa/bealepapers/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nsa/cryptoalmanac/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nsa/cryptolog/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nsa/odni-08-12-2014/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/BILLS-116-HRes660.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/20190812_-_whistleblower_complaint_unclass.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/Trump-Zelenskyy-CallTranscript.pdf</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/motherteresa-nsa-2018.pdf</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/motherteresa.pdf</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/nea/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/osd/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/iraq/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/doj/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/northcom/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/dnfsb/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/oge/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/stone_indictment_012419.pdf</t>
+  </si>
+  <si>
+    <t>Downloaded?</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/state/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/gsa/</t>
+  </si>
+  <si>
+    <t>https://documents2.theblackvault.com/documents/usmint/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/JFK-July_2017_Release-Formerly_released_in_part/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-1of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-2of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-3of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-4of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-5of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-6of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-7of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-8of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-July2017/jfk-july_2017_release-formerly_withheld_in_full-9of9/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/ARRB-Emails/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/ARRB/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/NARA-Dec15-2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/NARA-Nov-2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/NARA-Nov17-2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/NARA-Nov9-2017/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/NARA-Oct2017/emails/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/jfk/jfksearch/</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/opic/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nasa/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/congress/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/dod/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/dod/readingroom/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/dod/rumsfeld/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fema/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/fincen/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/faa/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/nhtsa/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/NPS/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/NPS/jefferson/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/irs/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/irs/TrumpIRS/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/irs/internalstatus/</t>
+  </si>
+  <si>
+    <t>A Revised Acquisition Program Baseline and Threat Assessment for the Chemical Demilitarization Program, October 2002</t>
+  </si>
+  <si>
+    <t>left off here</t>
   </si>
 </sst>
 </file>
@@ -372,7 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -387,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -695,21 +1152,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -717,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -725,88 +1184,912 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C11" r:id="rId4"/>
-    <hyperlink ref="C12" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="C14" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B43" r:id="rId4"/>
+    <hyperlink ref="B44" r:id="rId5"/>
+    <hyperlink ref="B45" r:id="rId6"/>
+    <hyperlink ref="B48" r:id="rId7"/>
+    <hyperlink ref="B49" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="D9" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="B50" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="B73" r:id="rId13"/>
+    <hyperlink ref="C39" r:id="rId14"/>
+    <hyperlink ref="B91" r:id="rId15"/>
+    <hyperlink ref="C92" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="https://www.theblackvault.com/documentarchive/revised-acquisition-program-baseline-threat-assessment-chemical-demilitarization-program-october-2002/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
@@ -882,14 +2165,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1322,6 +2607,8 @@
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assests/The Black Vault File Dump Open Directories.xlsx
+++ b/Assests/The Black Vault File Dump Open Directories.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28770" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28770" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Directories" sheetId="1" r:id="rId1"/>
     <sheet name="Other Files" sheetId="3" r:id="rId2"/>
     <sheet name="Unexplored" sheetId="2" r:id="rId3"/>
+    <sheet name="Book Marks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="255">
   <si>
     <t>The Black Vault File Dump Open Directories</t>
   </si>
@@ -748,6 +749,39 @@
   </si>
   <si>
     <t>left off here</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/eeoc/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/commercedept/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/usaf/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/federalreserve/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/travelexpenditures/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/rrb/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/dea/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/megabyteact/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/smithsonian/</t>
+  </si>
+  <si>
+    <t>https://documents.theblackvault.com/documents/ODNI/</t>
+  </si>
+  <si>
+    <t>January 16th, 2021</t>
   </si>
 </sst>
 </file>
@@ -826,7 +860,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -841,9 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1152,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,6 +1946,59 @@
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1935,9 +2019,10 @@
     <hyperlink ref="C39" r:id="rId14"/>
     <hyperlink ref="B91" r:id="rId15"/>
     <hyperlink ref="C92" r:id="rId16"/>
+    <hyperlink ref="B146" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1946,7 +2031,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,60 +2117,54 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>242</v>
-      </c>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" display="https://www.theblackvault.com/documentarchive/revised-acquisition-program-baseline-threat-assessment-chemical-demilitarization-program-october-2002/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2093,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,4 +2691,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.theblackvault.com/documentarchive/revised-acquisition-program-baseline-threat-assessment-chemical-demilitarization-program-october-2002/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>